--- a/リスナー.xlsx
+++ b/リスナー.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root2\OneDrive\デスクトップ\オラクルマスター シルバー\用語集\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root2\OneDrive\デスクトップ\オラクルマスター シルバー\用語集\git済み\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9FA5DD-B7D8-4EBA-875B-FECC6F1D9256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18848FF9-79BA-4A56-A801-9D40AF0D8D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="リスナーとは" sheetId="1" r:id="rId1"/>
     <sheet name="Isnrctlのコマンド" sheetId="2" r:id="rId2"/>
+    <sheet name="リスナー構成ツール" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="113">
   <si>
     <t>リスナーとは</t>
     <phoneticPr fontId="1"/>
@@ -1108,6 +1109,525 @@
     </rPh>
     <rPh sb="47" eb="48">
       <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトリスナーで接続する場合は、ファイルそのものが不要</t>
+    <rPh sb="10" eb="12">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、動的サービス登録のみを利用し、静的サービス登録を行わない場合は、インスタンス情報の記載は不要</t>
+    <rPh sb="3" eb="5">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポート番号1521で待ち受けているリスナーに動的サービス登録を行う場合は、初期化パラメータを明示的に設定する必要はない。</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TNS_ADMIN環境変数</t>
+    <rPh sb="9" eb="11">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oracle Net Services関連の設定ファイルを別の場所に配置したい場合</t>
+    <rPh sb="19" eb="21">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もしくは、OSユーザやアプリケーションによって異なる設定ファイルを用いる場合</t>
+    <rPh sb="23" eb="24">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境変数にディレクトリパスを指定することで対応できる。</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続時フェイルオーバー</t>
+    <rPh sb="0" eb="3">
+      <t>セツゾクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続先リスナー情報として複数のアドレスを指定</t>
+    <rPh sb="0" eb="3">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初に使用したアドレスで接続に失敗した場合、次のアドレスで再度接続を試行する方法</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成方法</t>
+    <rPh sb="0" eb="4">
+      <t>コウセイホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルネーミング使用時に、tnsnames.oraの接続記述子に複数のアドレスを指定する。</t>
+    <rPh sb="9" eb="12">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>キジュツシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上から順番に接続する（ロードバランシング併用時はランダム）</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ヘイヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続時ロードバランシング</t>
+    <rPh sb="0" eb="3">
+      <t>セツゾクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続先リスナー情報として複数のアドレスを指定しておき、接続実行時にいずれかのアドレスをランダムに使用する。</t>
+    <rPh sb="0" eb="3">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負荷分散することが狙い。</t>
+    <rPh sb="0" eb="4">
+      <t>フカブンサン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOAD_BALANCE=onを記載</t>
+    <rPh sb="16" eb="18">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイルオーバーとロードバランシングの併用</t>
+    <rPh sb="19" eb="21">
+      <t>ヘイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明示的にフェイルオーバーを無効化しない限り</t>
+    <rPh sb="0" eb="3">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ムコウカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続記述子に複数のアドレスを指定するとフェイルオーバーが有効となる。</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キジュツシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のアドレスからランダムに指定</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その指定されたアドレスで接続に失敗した場合、別のアドレスからランダムで再び指定される。</t>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enterprise Manager Cloud Control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意のデータベースサーバターゲット上のネットサービス名やリスナーを一元的に管理できる。</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>イチゲンテキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oracle Net Servicesの設定ももちろん可能</t>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oracle Net Manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIツール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルデータベースサーバ上のネーミングメソッドを管理</t>
+    <rPh sb="13" eb="14">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Isnrctl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドラインツール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスナーの起動と停止ができる。</t>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oracle Net Configuration Assistant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tnsnames.oraファイルの構成などを行える。</t>
+    <rPh sb="17" eb="19">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBCAやOracle Universal Installerから内部的に実行されることもある。</t>
+    <rPh sb="33" eb="36">
+      <t>ナイブテキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tnsping</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットサービス名の名前解決とリスナーへの到達を試行する。</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oracle Net Services</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモート接続を行うために必要な構成</t>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のツールを用いて構成できる。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1462,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1535,254 +2055,374 @@
         <v>12</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="B28" t="s">
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="B37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="B39" t="s">
-        <v>40</v>
+      <c r="A39" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>43</v>
+      <c r="B42" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="B43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="B46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="B48" t="s">
-        <v>52</v>
+      <c r="A48" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="B49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>55</v>
+      <c r="B52" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="B54" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="B55" t="s">
-        <v>70</v>
+      <c r="A55" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="B56" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>56</v>
+      <c r="B58" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="B59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="B60" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="B61" t="s">
-        <v>61</v>
+      <c r="A61" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="B62" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="B64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="B67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="B70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="B73" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="B76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="B79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="B82" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="B80" t="s">
+    <row r="83" spans="1:3">
+      <c r="B83" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
+    <row r="84" spans="1:3">
+      <c r="B84" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="B88" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="B95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="C96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="C104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="C105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="B111" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="B112" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1893,4 +2533,130 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896E2D21-FF65-4D38-9FC6-E1E0E398A236}">
+  <dimension ref="A2:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>